--- a/src/test/resources/template/tf03783921_win321.xlsx
+++ b/src/test/resources/template/tf03783921_win321.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngbinkim/intellij-workspace/ExcelWeaver/src/test/resources/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngbinkim/Workspace/intellij/ExcelWeaverKotlin/src/test/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DBCDD0-2A29-BE42-AE79-42D2D0858922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E5517-9D72-AC47-AFCD-189B3083ADA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Contract!$2:$2</definedName>
     <definedName name="제목1">주소[[#Headers],[이름]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Contract!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -101,11 +102,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[&lt;=999999]####\-####;\(0##\)\ ####\-####"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="[&lt;=999999]####\-####;\(0##\)\ ####\-####"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -536,7 +537,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -546,10 +547,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -606,7 +607,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,57 +618,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="20% - 강조색1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="36" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="40" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="44" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="48" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="37" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="41" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="45" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="49" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="38" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="42" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="46" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="50" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="35" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="39" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="43" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="47" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="23" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="36" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="40" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="44" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="48" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="37" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="41" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="45" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="49" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="38" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="42" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="46" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="50" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Phone" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="アクセント 1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="35" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="39" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="43" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="47" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="17" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="パーセント" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="23" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="桁区切り" xfId="9" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="桁区切り [0.00]" xfId="8" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="13" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="通貨" xfId="11" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="通貨 [0.00]" xfId="10" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="良い" xfId="15" builtinId="26" customBuiltin="1"/>
     <cellStyle name="날짜" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="메모" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="백분율" xfId="12" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="쉼표" xfId="8" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="쉼표 [0]" xfId="9" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="통화" xfId="10" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="통화 [0]" xfId="11" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="하이퍼링크" xfId="4" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Phone" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1236,7 +1237,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1323,7 +1324,7 @@
       </c>
       <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44072</v>
+        <v>44282</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -1334,9 +1335,7 @@
       <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7">
-        <v>98031</v>
-      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="30" customHeight="1">
@@ -1353,7 +1352,7 @@
       </c>
       <c r="G4" s="6">
         <f ca="1">TODAY()+5</f>
-        <v>44077</v>
+        <v>44287</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
@@ -1365,7 +1364,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations disablePrompts="1" xWindow="40" yWindow="400" count="13">
+  <dataValidations xWindow="40" yWindow="400" count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에 주소록을 만듭니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트 제목이 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 이름을 입력합니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
